--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CA6140-D3A6-495C-ABEE-0F995696B6D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EE2062-D1C5-4760-82A2-BBF434D8DB12}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -334,6 +341,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA6A05-352F-482B-940E-074C9DA947DD}">
   <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +686,7 @@
       </c>
       <c r="G3" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -696,26 +709,28 @@
       </c>
       <c r="G4" s="11">
         <f>SUM(G5:G7)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="18">
         <v>20</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="18">
         <v>40</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EE2062-D1C5-4760-82A2-BBF434D8DB12}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8896627F-A4F5-4F02-9B93-AE4EFAEAB32C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -632,7 +632,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="G3" s="9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
       </c>
       <c r="G4" s="11">
         <f>SUM(G5:G7)</f>
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -736,19 +736,21 @@
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="18">
         <v>10</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="18">
         <v>25</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="13">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8896627F-A4F5-4F02-9B93-AE4EFAEAB32C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C5653-E830-4671-958F-798814E37421}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Модуль, позволяющий сохранять объекты в файл</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
     <t>Реализация логики</t>
   </si>
   <si>
@@ -155,13 +152,25 @@
   </si>
   <si>
     <t>Окно со списком всех сохранённых рецептов (с пагинацией) и поисковой строкой (с кнопкой поиска). Панель инструментов позволяет создать новый рецепт. Карточки рецептов содержат название, ориентировочное время приготовления, основное изображение и ссылки для просмотра, редактирования и удаления рецепта.</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Сохранение изображений</t>
+  </si>
+  <si>
+    <t>Те изображения, что находятся в интернете, закодированы в Base64-uri или находятся не в папке хранилища, должны сохраняться в папку хранилища</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +194,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -291,11 +307,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -347,6 +400,30 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,7 +709,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,38 +754,38 @@
         <v>13</v>
       </c>
       <c r="E3" s="9">
-        <f>SUM(E4,E8,E11)</f>
-        <v>255</v>
+        <f>SUM(E4,E7,E12)</f>
+        <v>275</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:G3" si="0">SUM(F4,F8,F11)</f>
-        <v>440</v>
+        <f>SUM(F4,F7,F12)</f>
+        <v>470</v>
       </c>
       <c r="G3" s="9">
+        <f>SUM(G4,G7,G12)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="23">
+        <f t="shared" ref="E4:F4" si="0">SUM(E5:E6)</f>
+        <v>30</v>
+      </c>
+      <c r="F4" s="23">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11">
-        <f>SUM(E5:E7)</f>
-        <v>35</v>
-      </c>
-      <c r="F4" s="11">
-        <f>SUM(F5:F7)</f>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G4" s="11">
-        <f>SUM(G5:G7)</f>
+        <f>SUM(G5:G6)</f>
         <v>34</v>
       </c>
     </row>
@@ -717,10 +794,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="18">
         <v>20</v>
@@ -733,14 +810,14 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="18">
         <v>10</v>
@@ -753,217 +830,237 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11">
+        <f>SUM(E8:E11)</f>
+        <v>55</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" ref="F7:G7" si="1">SUM(F8:F11)</f>
+        <v>110</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="D8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="13">
+        <v>15</v>
+      </c>
+      <c r="F8" s="13">
+        <v>40</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="18">
+        <v>15</v>
+      </c>
+      <c r="F9" s="18">
+        <v>25</v>
+      </c>
+      <c r="G9" s="13">
         <v>5</v>
       </c>
-      <c r="F7" s="13">
-        <v>15</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11">
-        <f>SUM(E9:E10)</f>
-        <v>30</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" ref="F8:G8" si="1">SUM(F9:F10)</f>
-        <v>65</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="13">
-        <v>15</v>
-      </c>
-      <c r="F9" s="13">
-        <v>40</v>
-      </c>
-      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13">
+        <v>15</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" s="15" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="25">
+        <v>20</v>
+      </c>
+      <c r="F11" s="25">
+        <v>30</v>
+      </c>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="2:7" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="13">
+      <c r="D12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="11">
+        <f>SUM(E13:E17)</f>
+        <v>190</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ref="E12:F12" si="2">SUM(F13:F17)</f>
+        <v>295</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(G13:G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13">
+        <v>30</v>
+      </c>
+      <c r="F13" s="13">
+        <v>50</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="13">
         <v>15</v>
       </c>
-      <c r="F10" s="13">
-        <v>25</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="11">
-        <f>SUM(E12:E16)</f>
-        <v>190</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" ref="F11:G11" si="2">SUM(F12:F16)</f>
-        <v>295</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="F14" s="13">
         <v>30</v>
       </c>
-      <c r="F12" s="13">
-        <v>50</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="13">
-        <v>15</v>
-      </c>
-      <c r="F13" s="13">
-        <v>30</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="13">
-        <v>50</v>
-      </c>
-      <c r="F14" s="13">
-        <v>75</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="D15" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" s="13">
         <v>50</v>
       </c>
       <c r="F15" s="13">
+        <v>75</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="13">
+        <v>50</v>
+      </c>
+      <c r="F16" s="13">
         <v>80</v>
       </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>45</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>60</v>
       </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:7" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:7" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
@@ -1001,9 +1098,8 @@
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C5653-E830-4671-958F-798814E37421}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BFCC08-13BA-47D7-9C94-2BEF8CB5742D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -387,9 +387,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -424,6 +421,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,7 +709,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,24 +763,24 @@
       </c>
       <c r="G3" s="9">
         <f>SUM(G4,G7,G12)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f t="shared" ref="E4:F4" si="0">SUM(E5:E6)</f>
         <v>30</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -790,19 +790,19 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>20</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>40</v>
       </c>
       <c r="G5" s="13">
@@ -810,19 +810,19 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>10</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>25</v>
       </c>
       <c r="G6" s="13">
@@ -849,7 +849,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -871,19 +871,19 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>15</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>25</v>
       </c>
       <c r="G9" s="13">
@@ -891,40 +891,42 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="17">
         <v>5</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="17">
         <v>15</v>
       </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="2:7" s="15" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="G10" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>20</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>30</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="2:7" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
@@ -1039,28 +1041,28 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BFCC08-13BA-47D7-9C94-2BEF8CB5742D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5080E957-635B-423C-9D97-D2D451F30295}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Версия 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Заметки" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -58,9 +59,6 @@
     <t>3.2</t>
   </si>
   <si>
-    <t>Заметка</t>
-  </si>
-  <si>
     <t>Описание результата</t>
   </si>
   <si>
@@ -164,6 +162,12 @@
   </si>
   <si>
     <t>Те изображения, что находятся в интернете, закодированы в Base64-uri или находятся не в папке хранилища, должны сохраняться в папку хранилища</t>
+  </si>
+  <si>
+    <t>Версия</t>
+  </si>
+  <si>
+    <t>Текст</t>
   </si>
 </sst>
 </file>
@@ -206,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +235,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -293,54 +303,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -348,15 +321,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -390,40 +356,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,400 +674,614 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="29.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="95.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21"/>
+    <col min="3" max="3" width="29.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="95.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="13" style="21" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9" t="s">
+    <row r="3" spans="2:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9">
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
         <f>SUM(E4,E7,E12)</f>
         <v>275</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <f>SUM(F4,F7,F12)</f>
         <v>470</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <f>SUM(G4,G7,G12)</f>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="15">
         <f t="shared" ref="E4:F4" si="0">SUM(E5:E6)</f>
         <v>30</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="15">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <f>SUM(G5:G6)</f>
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="13">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13">
+        <v>40</v>
+      </c>
+      <c r="G5" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13">
         <v>25</v>
       </c>
-      <c r="E5" s="17">
-        <v>20</v>
-      </c>
-      <c r="F5" s="17">
-        <v>40</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="G6" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="17">
-        <v>10</v>
-      </c>
-      <c r="F6" s="17">
-        <v>25</v>
-      </c>
-      <c r="G6" s="13">
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <f>SUM(E8:E11)</f>
         <v>55</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <f t="shared" ref="F7:G7" si="1">SUM(F8:F11)</f>
         <v>110</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="8">
         <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10">
+        <v>40</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="13">
+        <v>15</v>
+      </c>
+      <c r="F9" s="13">
+        <v>25</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13">
+        <v>15</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="11" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="23">
+        <v>20</v>
+      </c>
+      <c r="F11" s="23">
+        <v>30</v>
+      </c>
+      <c r="G11" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="13">
-        <v>15</v>
-      </c>
-      <c r="F8" s="13">
-        <v>40</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="17">
-        <v>15</v>
-      </c>
-      <c r="F9" s="17">
-        <v>25</v>
-      </c>
-      <c r="G9" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="17">
-        <v>5</v>
-      </c>
-      <c r="F10" s="17">
-        <v>15</v>
-      </c>
-      <c r="G10" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="14" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="24">
-        <v>20</v>
-      </c>
-      <c r="F11" s="24">
-        <v>30</v>
-      </c>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="2:7" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <f>SUM(E13:E17)</f>
         <v>190</v>
       </c>
-      <c r="F12" s="11">
-        <f t="shared" ref="E12:F12" si="2">SUM(F13:F17)</f>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12" si="2">SUM(F13:F17)</f>
         <v>295</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <f>SUM(G13:G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="10">
         <v>30</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <v>50</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="10">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10">
+        <v>30</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="13">
-        <v>15</v>
-      </c>
-      <c r="F14" s="13">
-        <v>30</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="10">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10">
+        <v>75</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="13">
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10">
         <v>50</v>
       </c>
-      <c r="F15" s="13">
-        <v>75</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="F16" s="10">
+        <v>80</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="13">
-        <v>50</v>
-      </c>
-      <c r="F16" s="13">
-        <v>80</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>45</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>60</v>
       </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C19:G19"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA262E4-F6CE-438D-8840-8A65BD775C67}">
+  <dimension ref="B2:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="126.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5080E957-635B-423C-9D97-D2D451F30295}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2B77A4-F7E6-4FAB-9DAE-73CEA83CE4C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>3.2</t>
-  </si>
-  <si>
-    <t>Описание результата</t>
   </si>
   <si>
     <t>Приложение для ведения книги рецептов.</t>
@@ -674,7 +671,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,11 +710,9 @@
     <row r="3" spans="2:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="6">
         <f>SUM(E4,E7,E12)</f>
         <v>275</v>
@@ -728,7 +723,7 @@
       </c>
       <c r="G3" s="6">
         <f>SUM(G4,G7,G12)</f>
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -736,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="15">
         <f t="shared" ref="E4:F4" si="0">SUM(E5:E6)</f>
@@ -759,10 +754,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="13">
         <v>20</v>
@@ -779,10 +774,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="E6" s="13">
         <v>10</v>
@@ -795,55 +790,57 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="E7" s="15">
         <f>SUM(E8:E11)</f>
         <v>55</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="15">
         <f t="shared" ref="F7:G7" si="1">SUM(F8:F11)</f>
         <v>110</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>SUM(G8:G11)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="C8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="13">
         <v>15</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="13">
         <v>40</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="E9" s="13">
         <v>15</v>
@@ -857,13 +854,13 @@
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="E10" s="13">
         <v>5</v>
@@ -877,13 +874,13 @@
     </row>
     <row r="11" spans="2:7" s="11" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="23">
         <v>20</v>
@@ -900,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8">
         <f>SUM(E13:E17)</f>
@@ -923,10 +920,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="10">
         <v>30</v>
@@ -941,10 +938,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="10">
         <v>15</v>
@@ -956,13 +953,13 @@
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="10">
         <v>50</v>
@@ -974,13 +971,13 @@
     </row>
     <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="E16" s="10">
         <v>50</v>
@@ -992,13 +989,13 @@
     </row>
     <row r="17" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="E17" s="10">
         <v>45</v>
@@ -1086,13 +1083,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2B77A4-F7E6-4FAB-9DAE-73CEA83CE4C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971051AD-2EBA-42B4-8986-CEA4B762EB3F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -671,7 +671,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="G3" s="6">
         <f>SUM(G4,G7,G12)</f>
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>55</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" ref="F7:G7" si="1">SUM(F8:F11)</f>
+        <f t="shared" ref="F7" si="1">SUM(F8:F11)</f>
         <v>110</v>
       </c>
       <c r="G7" s="8">
@@ -912,7 +912,7 @@
       </c>
       <c r="G12" s="8">
         <f>SUM(G13:G17)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -931,7 +931,9 @@
       <c r="F13" s="10">
         <v>50</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971051AD-2EBA-42B4-8986-CEA4B762EB3F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86009493-258C-42D1-A113-38683C7C1E7E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Текст</t>
+  </si>
+  <si>
+    <t>Большие элементы со множеством функций (например главное окно с поиском и пагинацией) лучше разделять на несколько задач.</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -388,6 +391,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -670,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA6A05-352F-482B-940E-074C9DA947DD}">
   <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +729,7 @@
       </c>
       <c r="G3" s="6">
         <f>SUM(G4,G7,G12)</f>
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -912,27 +918,27 @@
       </c>
       <c r="G12" s="8">
         <f>SUM(G13:G17)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="10">
-        <v>30</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="F13" s="13">
         <v>50</v>
       </c>
       <c r="G13" s="10">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1069,14 +1075,14 @@
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="27" customWidth="1"/>
     <col min="5" max="5" width="126.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1087,7 +1093,7 @@
       <c r="C2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -1095,189 +1101,197 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="18"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="18"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="18"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="18"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="18"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="18"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="18"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="18"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="18"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="18"/>
     </row>
   </sheetData>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86009493-258C-42D1-A113-38683C7C1E7E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768EC025-0AA0-4EA0-B783-DFC681EB197F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -677,7 +677,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
       </c>
       <c r="G3" s="6">
         <f>SUM(G4,G7,G12)</f>
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
       </c>
       <c r="G12" s="8">
         <f>SUM(G13:G17)</f>
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -942,22 +942,24 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="13">
         <v>15</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="13">
         <v>30</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768EC025-0AA0-4EA0-B783-DFC681EB197F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88877A80-FCF0-45CB-B81E-BCF75488B732}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA6A05-352F-482B-940E-074C9DA947DD}">
   <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
       </c>
       <c r="G3" s="6">
         <f>SUM(G4,G7,G12)</f>
-        <v>145</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
       </c>
       <c r="G12" s="8">
         <f>SUM(G13:G17)</f>
-        <v>69</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -962,22 +962,24 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="13">
         <v>50</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="13">
         <v>75</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88877A80-FCF0-45CB-B81E-BCF75488B732}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555E4332-FB59-46D5-B031-EB295C31FEC3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -677,7 +677,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
       </c>
       <c r="G3" s="6">
         <f>SUM(G4,G7,G12)</f>
-        <v>240</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
       </c>
       <c r="G12" s="8">
         <f>SUM(G13:G17)</f>
-        <v>164</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -978,7 +978,7 @@
         <v>75</v>
       </c>
       <c r="G15" s="10">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -997,7 +997,9 @@
       <c r="F16" s="10">
         <v>80</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10">
+        <v>165</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555E4332-FB59-46D5-B031-EB295C31FEC3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A63F40-0A82-4687-8E42-08227C58BE34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
       </c>
       <c r="G3" s="6">
         <f>SUM(G4,G7,G12)</f>
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
       </c>
       <c r="G12" s="8">
         <f>SUM(G13:G17)</f>
-        <v>339</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="10">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -978,27 +978,27 @@
         <v>75</v>
       </c>
       <c r="G15" s="10">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="13">
         <v>50</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="13">
         <v>80</v>
       </c>
       <c r="G16" s="10">
-        <v>165</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A63F40-0A82-4687-8E42-08227C58BE34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E42882-248E-4E6E-A1F9-839984D66754}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -321,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -341,13 +347,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -677,19 +677,19 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="21"/>
-    <col min="3" max="3" width="29.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="95.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13" style="21" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="3.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="19"/>
+    <col min="3" max="3" width="29.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="95.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13" style="19" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -729,299 +729,301 @@
       </c>
       <c r="G3" s="6">
         <f>SUM(G4,G7,G12)</f>
-        <v>504</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <f t="shared" ref="E4:F4" si="0">SUM(E5:E6)</f>
         <v>30</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>SUM(G5:G6)</f>
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>20</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>40</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>10</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>25</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <f>SUM(E8:E11)</f>
         <v>55</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <f t="shared" ref="F7" si="1">SUM(F8:F11)</f>
         <v>110</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f>SUM(G8:G11)</f>
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>15</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>40</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>15</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>25</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>5</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>15</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="11" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:7" s="9" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>20</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>30</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="12">
         <v>3</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="13">
         <f>SUM(E13:E17)</f>
         <v>190</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="13">
         <f t="shared" ref="F12" si="2">SUM(F13:F17)</f>
         <v>295</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <f>SUM(G13:G17)</f>
-        <v>428</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>30</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <v>50</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>15</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <v>30</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>50</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <v>75</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>50</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <v>80</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <v>45</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="11">
         <v>60</v>
       </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
+      <c r="G17" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1088,217 +1090,217 @@
   <cols>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="25" customWidth="1"/>
     <col min="5" max="5" width="126.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="18"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="18"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="18"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="18"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="18"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="18"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="18"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
